--- a/output/charls_wealth.xlsx
+++ b/output/charls_wealth.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -44,9 +44,30 @@
     <t xml:space="preserve">asset_total_logged</t>
   </si>
   <si>
+    <t xml:space="preserve">asset_fin_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset_fin_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset_home_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset_other_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriagegiftTRUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">marriagehomeTRUE</t>
   </si>
   <si>
+    <t xml:space="preserve">marriagegiftvalue_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriagehomevalue_logged</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
@@ -68,112 +89,253 @@
     <t xml:space="preserve">Model 1</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.31 *** (0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 *** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 * (0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28 (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (0.05)</t>
+    <t xml:space="preserve">-7.57 *** (0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19 (0.17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (0.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 *** (0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84 *** (0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 ** (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 *** (0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86 ** (0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 * (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 *** (0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 ** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51 * (0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 * (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40 (0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 ** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36 * (0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15 *** (0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 *** (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.57 * (1.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 ** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33 (0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11 *** (0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 * (0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 * (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (0.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 * (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62 ** (0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 * (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 *** (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19 * (0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 * (0.09)</t>
   </si>
   <si>
     <t xml:space="preserve">0.06 *** (0.01)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.06 (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.04 *** (0.60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 *** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 *** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (0.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 *** (0.04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (0.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 *** (0.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 * (0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (0.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 ** (0.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 (0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 *** (0.06)</t>
+    <t xml:space="preserve">0.24 (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 *** (0.03)</t>
   </si>
 </sst>
 </file>
@@ -634,6 +796,11 @@
     <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="NA" customHeight="1">
@@ -641,16 +808,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -658,16 +840,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -675,16 +872,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -692,16 +904,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -709,16 +936,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>33</v>
+      <c r="H5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -726,16 +968,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -743,16 +1000,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -760,16 +1032,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -777,16 +1064,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -794,140 +1096,484 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>2618</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>2618</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>1730</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>1730</v>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>2403.55</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>3049.44</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>5050.62</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>5018.21</v>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>2456.38</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>3102.27</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>5105.18</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>5078.22</v>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="NA" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" ht="NA" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" ht="NA" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="NA" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>716</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>716</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>678</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>1045</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>223</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>716</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" ht="NA" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>1190.23</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>2100.03</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>2106.61</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>1321.82</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1257.98</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>1030.68</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>625.36</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>2089.26</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>2055.15</v>
+      </c>
+    </row>
+    <row r="21" ht="NA" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>1234.79</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>2145.77</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>2166.07</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>1366.39</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>1303.18</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>1075.25</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>659.43</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>2144.15</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>2110.04</v>
+      </c>
+    </row>
+    <row r="22" ht="NA" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="n">
         <v>0.16</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="NA" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="10" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E16" s="10" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="17" ht="NA" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="NA" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="24" ht="NA" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
